--- a/Data Collection/Authors/Adolf Muschg/Muschg_all_2021.xlsx
+++ b/Data Collection/Authors/Adolf Muschg/Muschg_all_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johanna\.spyder-py3\Adolf Muschg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johanna\Documents\GitHub\COINS_SwissTribeleaders\Data Collection\Authors\Adolf Muschg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F6F4BF-3DE9-4397-8FB3-BA3F53E22497}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC416D2-C4CC-4382-8184-7292BCE88E02}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1072,7 +1072,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1096,13 +1096,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1129,20 +1141,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Schlecht" xfId="2" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1423,11 +1444,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
@@ -1977,29 +2002,29 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="23" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="H23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="H23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="5" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2081,145 +2106,145 @@
         <v>136</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+    <row r="27" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="7">
         <v>44297.822811248727</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="H27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="H27" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="7">
         <v>44297.822811271901</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="H28" t="s">
-        <v>13</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="H28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+    <row r="29" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="7">
         <v>44297.822811306607</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="H29" t="s">
-        <v>13</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="H29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+    <row r="30" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="7">
         <v>44297.822811329737</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="H30" t="s">
-        <v>13</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="H30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+    <row r="31" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="7">
         <v>44297.822811364487</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="H31" t="s">
-        <v>13</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="H31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" s="5" t="s">
         <v>156</v>
       </c>
     </row>
@@ -2310,32 +2335,32 @@
         <v>172</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+    <row r="35" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="7">
         <v>44297.823307758023</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="H35" t="s">
-        <v>13</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="H35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" s="5" t="s">
         <v>176</v>
       </c>
     </row>

--- a/Data Collection/Authors/Adolf Muschg/Muschg_all_2021.xlsx
+++ b/Data Collection/Authors/Adolf Muschg/Muschg_all_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johanna\Documents\GitHub\COINS_SwissTribeleaders\Data Collection\Authors\Adolf Muschg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c6ad9d82f21af58/Dokumente/COINS_SwissTribeleaders/Data Collection/Authors/Adolf Muschg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC416D2-C4CC-4382-8184-7292BCE88E02}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{4CC416D2-C4CC-4382-8184-7292BCE88E02}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8F5FBA9F-2BAE-49BB-A3B8-FC384E08AA3F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="250">
   <si>
     <t>title</t>
   </si>
@@ -36,18 +36,12 @@
     <t>date</t>
   </si>
   <si>
-    <t>datetime</t>
-  </si>
-  <si>
     <t>desc</t>
   </si>
   <si>
     <t>link</t>
   </si>
   <si>
-    <t>img</t>
-  </si>
-  <si>
     <t>summary</t>
   </si>
   <si>
@@ -57,16 +51,10 @@
     <t>Jungfrau Zeitung</t>
   </si>
   <si>
-    <t>13 Jan 2021</t>
-  </si>
-  <si>
     <t>2019 erhielt er als vierter Schweizer nach Max Frisch, Friedrich Dürrenmatt und Adolf Muschg den Georg-Büchner-Preis, der als eine der renommiertesten ...</t>
   </si>
   <si>
     <t>https://www.jungfrauzeitung.ch/artikel/187432/</t>
-  </si>
-  <si>
-    <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///////yH5BAEKAAEALAAAAAABAAEAAAICTAEAOw==</t>
   </si>
   <si>
     <t>Diese Reihe soll Dürrenmatts Werk in der Weltliteratur verorten, teilt die Universität Bern mit.
@@ -82,9 +70,6 @@
     <t>FAZ</t>
   </si>
   <si>
-    <t>10 Jan 2021</t>
-  </si>
-  <si>
     <t>Stars heben ab. Doch kein Mensch wie du und ich · Der Schriftsteller und Literaturwissenschaftler Adolf Muschg. FAZ plus Artikel Debatte um Cancel-Culture.</t>
   </si>
   <si>
@@ -120,9 +105,6 @@
     <t>Durcheinanderland Schweiz</t>
   </si>
   <si>
-    <t>5 Jan 2021</t>
-  </si>
-  <si>
     <t>... eigentliche Regierung mit entsprechender Verantwortung in der direktdemokratischen Schweiz fehlt, wie dies der Schriftsteller Adolf Muschg kürzlich in einem ...</t>
   </si>
   <si>
@@ -142,9 +124,6 @@
     <t>rlp.de</t>
   </si>
   <si>
-    <t>18 Jan 2021</t>
-  </si>
-  <si>
     <t>... Günter Strack (1988), Hanns Dieter Hüsch (1989), Martin Walser, Adolf Muschg, André Weckmann (1990), Albrecht Schöne (1991), Hilde Domin (1992), Hans ...</t>
   </si>
   <si>
@@ -161,9 +140,6 @@
     <t>Eine Stadt und ihre Kirchenbaulast</t>
   </si>
   <si>
-    <t>28 Jan 2021</t>
-  </si>
-  <si>
     <t>Der Schriftsteller und Literaturwissenschaftler Adolf Muschg. FAZ plus Artikel Debatte um Cancel-Culture. Ein bisschen wie Auschwitz · Die Kanzlerkandidatin ...</t>
   </si>
   <si>
@@ -183,9 +159,6 @@
     <t>WELT</t>
   </si>
   <si>
-    <t>27 Jan 2021</t>
-  </si>
-  <si>
     <t>Panorama Designierter US-Präsident. KZ-Gedenkstätte Dachau antwortet auf Kritik von Joe Biden. Gegen Geschichtsvergessenheit? Adolf Muschg ...</t>
   </si>
   <si>
@@ -196,9 +169,6 @@
   </si>
   <si>
     <t>Aargauer Zeitung</t>
-  </si>
-  <si>
-    <t>25 Jan 2021</t>
   </si>
   <si>
     <t>Adolf Muschg, einer der Erstunterzeichner, spricht von einem «weit verbreiteten Renditedenken», das sich da zeige. «Man schreibt eine Generation ab, die im ...</t>
@@ -217,9 +187,6 @@
     <t>Den Zeitgenossen die Leviten lesen</t>
   </si>
   <si>
-    <t>31 Jan 2021</t>
-  </si>
-  <si>
     <t>... Dorothee Sölle, ebenfalls in der Friedensbewegung engagiert, hier zwischen Kurt Marti und Adolf Muschg, 1989 in Bern (Foto: Hektor Leibundgut, Bern).</t>
   </si>
   <si>
@@ -254,9 +221,6 @@
     <t>Blick</t>
   </si>
   <si>
-    <t>24 Jan 2021</t>
-  </si>
-  <si>
     <t>Adolf Muschg vergleicht «Cancel Culture» mit Auschwitz. 0:46. Schweizer Schriftsteller. Adolf Muschg vergleicht «Cancel Culture» mit Auschwitz. Meistgelesen.</t>
   </si>
   <si>
@@ -289,9 +253,6 @@
     <t>So kann man in Digitalwährungen investieren</t>
   </si>
   <si>
-    <t>10 Feb 2021</t>
-  </si>
-  <si>
     <t>https://www.faz.net/aktuell/finanzen/meine-finanzen/sparen-und-geld-anlegen/so-kann-man-in-digitalwaehrungen-investieren-17189167.html</t>
   </si>
   <si>
@@ -305,9 +266,6 @@
     <t>Fredy Hirsch: Google ehrt Athleten und Erzieher mit Doodle</t>
   </si>
   <si>
-    <t>11 Feb 2021</t>
-  </si>
-  <si>
     <t>Für Adolf Muschg ist Cancel Culture „ein Teil von Auschwitz“. Mladen Gladić.</t>
   </si>
   <si>
@@ -317,9 +275,6 @@
     <t>Start im September: Microlino 2.0</t>
   </si>
   <si>
-    <t>14 Feb 2021</t>
-  </si>
-  <si>
     <t>Adolf Muschg. Tabubruch. Für Adolf Muschg ist Cancel Culture „ein Teil von Auschwitz“. Mladen Gladić. Some "Tschaeggaettae", masked participants of the ...</t>
   </si>
   <si>
@@ -327,9 +282,6 @@
   </si>
   <si>
     <t>Diese 7 Wörter benutzen wir alle falsch</t>
-  </si>
-  <si>
-    <t>5 Feb 2021</t>
   </si>
   <si>
     <t>Adolf Muschg vergleicht «Cancel Culture» mit Auschwitz. 0:46. Schweizer Schriftsteller. Adolf Muschg vergleicht «Cancel Culture» mit Auschwitz.</t>
@@ -364,9 +316,6 @@
     <t>Literatur: Schriftsteller Philippe Jaccottet ist tot</t>
   </si>
   <si>
-    <t>25 Feb 2021</t>
-  </si>
-  <si>
     <t>Adolf Muschg vergleicht «Cancel Culture» mit Auschwitz. 0:46. Schweizer Schriftsteller. Adolf Muschg vergleicht «Cancel Culture» mit Auschwitz · Das neue ...</t>
   </si>
   <si>
@@ -383,9 +332,6 @@
     <t>John Rawls: „Ist Beten überhaupt möglich“ ?</t>
   </si>
   <si>
-    <t>21 Feb 2021</t>
-  </si>
-  <si>
     <t>Byung-Chul Han. Gegen Geschichtsvergessenheit? Adolf Muschg. Tabubruch. Für Adolf Muschg ist Cancel Culture „ein Teil von Auschwitz“. Mladen Gladić.</t>
   </si>
   <si>
@@ -405,9 +351,6 @@
     <t>Nau</t>
   </si>
   <si>
-    <t>22 Feb 2021</t>
-  </si>
-  <si>
     <t>Zürich Auch in diesem Jahr fällt die Zürcher Seeüberquerung aus · «Form von Auschwitz» - Schriftsteller Adolf Muschg schockiert bei SRF ...</t>
   </si>
   <si>
@@ -418,9 +361,6 @@
   </si>
   <si>
     <t>NDR</t>
-  </si>
-  <si>
-    <t>7 Mar 2021</t>
   </si>
   <si>
     <t>26 Min | Verfügbar bis 06.06.2021. Der Schweizer Schriftsteller Adolf Muschg spricht über den zehnten Jahrestag der Atomkatastrophe von Fukushima.</t>
@@ -434,9 +374,6 @@
   </si>
   <si>
     <t>Urs Gredig verschwand bei «10 vor 10» gestern hinter der Kamera</t>
-  </si>
-  <si>
-    <t>3 Mar 2021</t>
   </si>
   <si>
     <t>«Wer wird Millionär?» Rocker lässt bei Günther Jauch die Hosen runter · Adolf Muschg vergleicht «Cancel Culture» mit Auschwitz. 0:46. Schweizer Schriftsteller.</t>
@@ -458,9 +395,6 @@
     <t>Der Standard</t>
   </si>
   <si>
-    <t>10 Mar 2021</t>
-  </si>
-  <si>
     <t>STANDARD: Adolf Muschg hat Fukushima zum Thema eines seiner Romane gemacht, Doris Dörrie hat es in einem Film verarbeitet, Philipp Weiss im ersten Teil ...</t>
   </si>
   <si>
@@ -480,9 +414,6 @@
     <t>The European</t>
   </si>
   <si>
-    <t>11 Mar 2021</t>
-  </si>
-  <si>
     <t>Der Schweizer Literat Adolf Muschg fragte einmal: „Gehen die Deutschen mit ihrer Identität so großzügig um, oder so wegwerfend? Es ist eins, glaube ich, die ...</t>
   </si>
   <si>
@@ -502,9 +433,6 @@
     <t>Basler Zeitung</t>
   </si>
   <si>
-    <t>14 Mar 2021</t>
-  </si>
-  <si>
     <t>Der Familienroman: «Kinderhochzeit» von Adolf Muschg. Liebesroman und Porträt einer Fabrikantenfamilie am Oberrhein. &gt; Der Basel-Roman: Daniela Engist ...</t>
   </si>
   <si>
@@ -521,9 +449,6 @@
     <t>Matthew McConaughey möchte noch mal in die Flitterwochen</t>
   </si>
   <si>
-    <t>1 month ago</t>
-  </si>
-  <si>
     <t>Mehr zum Thema. Gegen Geschichtsvergessenheit? Adolf Muschg. Tabubruch. Für Adolf Muschg ist Cancel Culture „ein Teil von Auschwitz“. Mladen Gladić.</t>
   </si>
   <si>
@@ -638,9 +563,6 @@
     <t>persoenlich.com</t>
   </si>
   <si>
-    <t>4 weeks ago</t>
-  </si>
-  <si>
     <t>Und welcher Gast beeindruckte Sie sonst noch? Ich mag Menschen mit Lebenserfahrung – zum Beispiel Emil oder Adolf Muschg – oder solche, die mich fordern ...</t>
   </si>
   <si>
@@ -731,9 +653,6 @@
     <t>NZZ</t>
   </si>
   <si>
-    <t>2 weeks ago</t>
-  </si>
-  <si>
     <t>Der Schriftsteller Adolf Muschg in seinem Garten in Männedorf. Karin Hofer / NZZ. Adolf Muschg entschlüpft in der SRF-«Sternstunde» von vergangenem Sonntag ...</t>
   </si>
   <si>
@@ -814,9 +733,6 @@
     <t>Zum Schluss: Entsetzen über Auschwitz-Vergleich von Adolf ...</t>
   </si>
   <si>
-    <t>1 week ago</t>
-  </si>
-  <si>
     <t>Der Schweizer Schriftsteller und Intellektuelle Adolf Muschg hat mit einem Auschwitz-Vergleich für Empörung und Bestürzung gesorgt. In der SRF-Sendung « ...</t>
   </si>
   <si>
@@ -948,9 +864,6 @@
     <t>Gastkommentar - Worte wie zu grosse Anzüge: Wieso sich politisch korrekte Sprache (noch) nicht für Literatur eignet</t>
   </si>
   <si>
-    <t>3 days ago</t>
-  </si>
-  <si>
     <t>Hier soll nicht von «Cancel Culture» oder der umstrittenen Äusserung von Adolf Muschg die Rede sein, sondern von dem, was sich seit dem Sommer 2020, seit ...</t>
   </si>
   <si>
@@ -970,9 +883,6 @@
     <t>Tachles</t>
   </si>
   <si>
-    <t>4 days ago</t>
-  </si>
-  <si>
     <t>Ein Auschwitzvergleich des Schweizer Schriftstellers Adolf Muschg sorgt für Aufregung. Im aktuellen Podcast ordnen die Literaturwissenschaftler Caspar ...</t>
   </si>
   <si>
@@ -992,9 +902,6 @@
     <t>WOZ</t>
   </si>
   <si>
-    <t>6 days ago</t>
-  </si>
-  <si>
     <t>Adolf Muschg hat die «Cancel Culture» mit «Auschwitz» verglichen und wird dafür auch noch verteidigt. Das ist eine unerträgliche Banalisierung des Holocaust, ...</t>
   </si>
   <si>
@@ -1030,9 +937,6 @@
     <t>Seitenhiebe – Von Nutten* und Sozial:demokraten</t>
   </si>
   <si>
-    <t>1 day ago</t>
-  </si>
-  <si>
     <t>Eine satirische Exkursion nach Basel mit Adolf Muschg und Karl Marx. Joël Hoffmann. MeinungJoël Hoffmann. Publiziert: 10.05.2021, 11:52.</t>
   </si>
   <si>
@@ -1069,9 +973,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1152,14 +1053,14 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1442,19 +1343,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="J62" sqref="J62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1473,1621 +1374,1349 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="7">
+        <v>44209</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="7">
+        <v>44206</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D4" s="7">
+        <v>44206</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="D5" s="7">
+        <v>44201</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="D6" s="7">
+        <v>44214</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D7" s="7">
+        <v>44224</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="D8" s="7">
+        <v>44223</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="D9" s="7">
+        <v>44221</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="D10" s="7">
+        <v>44227</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="7">
+        <v>44221</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="D12" s="7">
+        <v>44220</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="D13" s="7">
+        <v>44223</v>
+      </c>
+      <c r="E13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D14" s="7">
+        <v>44237</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="D15" s="7">
+        <v>44238</v>
+      </c>
+      <c r="E15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" t="s">
-        <v>82</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="D16" s="7">
+        <v>44241</v>
+      </c>
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="D17" s="7">
+        <v>44232</v>
+      </c>
+      <c r="E17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" t="s">
-        <v>77</v>
-      </c>
-      <c r="F18" t="s">
-        <v>90</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="D18" s="7">
+        <v>44238</v>
+      </c>
+      <c r="E18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" t="s">
-        <v>94</v>
-      </c>
-      <c r="F19" t="s">
-        <v>95</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="D19" s="7">
+        <v>44252</v>
+      </c>
+      <c r="E19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" t="s">
-        <v>99</v>
-      </c>
-      <c r="F20" t="s">
-        <v>100</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H20" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="D20" s="7">
+        <v>44248</v>
+      </c>
+      <c r="E20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" t="s">
-        <v>105</v>
-      </c>
-      <c r="F21" t="s">
-        <v>106</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="D21" s="7">
+        <v>44249</v>
+      </c>
+      <c r="E21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C22" t="s">
-        <v>109</v>
-      </c>
-      <c r="D22" t="s">
-        <v>110</v>
-      </c>
-      <c r="F22" t="s">
-        <v>111</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+        <v>90</v>
+      </c>
+      <c r="D22" s="7">
+        <v>44262</v>
+      </c>
+      <c r="E22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>115</v>
+      <c r="B23" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="8">
+        <v>44258</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="C24" t="s">
-        <v>120</v>
-      </c>
-      <c r="D24" t="s">
-        <v>121</v>
-      </c>
-      <c r="F24" t="s">
-        <v>122</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="H24" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="D24" s="7">
+        <v>44265</v>
+      </c>
+      <c r="E24" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="C25" t="s">
-        <v>126</v>
-      </c>
-      <c r="D25" t="s">
-        <v>127</v>
-      </c>
-      <c r="F25" t="s">
-        <v>128</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="H25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="D25" s="7">
+        <v>44266</v>
+      </c>
+      <c r="E25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="7">
+        <v>44269</v>
+      </c>
+      <c r="E26" t="s">
+        <v>110</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="8">
+        <v>44297.822811248727</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="8">
+        <v>44297.822811271901</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="8">
+        <v>44297.822811306607</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>28</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="8">
+        <v>44297.822811329737</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>29</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" s="8">
+        <v>44297.822811364487</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C26" t="s">
-        <v>132</v>
-      </c>
-      <c r="D26" t="s">
-        <v>133</v>
-      </c>
-      <c r="F26" t="s">
-        <v>134</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>25</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E27" s="7">
-        <v>44297.822811248727</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>26</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E28" s="7">
-        <v>44297.822811271901</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>27</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E29" s="7">
-        <v>44297.822811306607</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <v>28</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E30" s="7">
-        <v>44297.822811329737</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>29</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E31" s="7">
-        <v>44297.822811364487</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="C32" t="s">
-        <v>158</v>
-      </c>
-      <c r="D32" t="s">
-        <v>138</v>
-      </c>
-      <c r="E32" s="3">
+        <v>133</v>
+      </c>
+      <c r="D32" s="7">
         <v>44297.822811399223</v>
       </c>
-      <c r="F32" t="s">
-        <v>159</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="H32" t="s">
-        <v>13</v>
-      </c>
-      <c r="I32" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>134</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G32" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="C33" t="s">
-        <v>163</v>
-      </c>
-      <c r="D33" t="s">
         <v>138</v>
       </c>
-      <c r="E33" s="3">
+      <c r="D33" s="7">
         <v>44297.823307723302</v>
       </c>
-      <c r="F33" t="s">
-        <v>164</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="H33" t="s">
-        <v>13</v>
-      </c>
-      <c r="I33" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>139</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G33" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C34" t="s">
-        <v>168</v>
-      </c>
-      <c r="D34" t="s">
-        <v>169</v>
-      </c>
-      <c r="E34" s="3">
+        <v>143</v>
+      </c>
+      <c r="D34" s="7">
         <v>44299.823307734892</v>
       </c>
-      <c r="F34" t="s">
-        <v>170</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="H34" t="s">
-        <v>13</v>
-      </c>
-      <c r="I34" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+      <c r="E34" t="s">
+        <v>144</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G34" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
         <v>33</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E35" s="7">
+      <c r="B35" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="8">
         <v>44297.823307758023</v>
       </c>
+      <c r="E35" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="F35" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="C36" t="s">
-        <v>178</v>
-      </c>
-      <c r="D36" t="s">
-        <v>138</v>
-      </c>
-      <c r="E36" s="3">
+        <v>152</v>
+      </c>
+      <c r="D36" s="7">
         <v>44297.823307781167</v>
       </c>
-      <c r="F36" t="s">
-        <v>179</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="H36" t="s">
-        <v>13</v>
-      </c>
-      <c r="I36" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>153</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G36" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="C37" t="s">
-        <v>183</v>
-      </c>
-      <c r="D37" t="s">
-        <v>138</v>
-      </c>
-      <c r="E37" s="3">
+        <v>157</v>
+      </c>
+      <c r="D37" s="7">
         <v>44297.823307804341</v>
       </c>
-      <c r="F37" t="s">
-        <v>184</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="H37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I37" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>158</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G37" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="C38" t="s">
-        <v>188</v>
-      </c>
-      <c r="D38" t="s">
-        <v>138</v>
-      </c>
-      <c r="E38" s="3">
+        <v>162</v>
+      </c>
+      <c r="D38" s="7">
         <v>44297.823307827479</v>
       </c>
-      <c r="F38" t="s">
-        <v>189</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="H38" t="s">
-        <v>13</v>
-      </c>
-      <c r="I38" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>163</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G38" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="C39" t="s">
-        <v>193</v>
-      </c>
-      <c r="D39" t="s">
-        <v>194</v>
-      </c>
-      <c r="E39" s="3">
+        <v>167</v>
+      </c>
+      <c r="D39" s="7">
         <v>44313.823645409597</v>
       </c>
-      <c r="F39" t="s">
-        <v>195</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="H39" t="s">
-        <v>13</v>
-      </c>
-      <c r="I39" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>168</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G39" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
-      </c>
-      <c r="D40" t="s">
-        <v>194</v>
-      </c>
-      <c r="E40" s="3">
+        <v>35</v>
+      </c>
+      <c r="D40" s="7">
         <v>44313.823645421173</v>
       </c>
-      <c r="F40" t="s">
-        <v>199</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="H40" t="s">
-        <v>13</v>
-      </c>
-      <c r="I40" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>172</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G40" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="C41" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" t="s">
-        <v>194</v>
-      </c>
-      <c r="E41" s="3">
+        <v>12</v>
+      </c>
+      <c r="D41" s="7">
         <v>44313.823645432742</v>
       </c>
-      <c r="F41" t="s">
-        <v>203</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="H41" t="s">
-        <v>13</v>
-      </c>
-      <c r="I41" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>176</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G41" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="C42" t="s">
-        <v>163</v>
-      </c>
-      <c r="D42" t="s">
-        <v>194</v>
-      </c>
-      <c r="E42" s="3">
+        <v>138</v>
+      </c>
+      <c r="D42" s="7">
         <v>44313.823645455886</v>
       </c>
-      <c r="F42" t="s">
-        <v>207</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="H42" t="s">
-        <v>13</v>
-      </c>
-      <c r="I42" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>180</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G42" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="C43" t="s">
-        <v>48</v>
-      </c>
-      <c r="D43" t="s">
-        <v>194</v>
-      </c>
-      <c r="E43" s="3">
+        <v>39</v>
+      </c>
+      <c r="D43" s="7">
         <v>44313.823645479068</v>
       </c>
-      <c r="F43" t="s">
-        <v>211</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="H43" t="s">
-        <v>13</v>
-      </c>
-      <c r="I43" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>184</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G43" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>214</v>
-      </c>
-      <c r="D44" t="s">
-        <v>215</v>
-      </c>
-      <c r="E44" s="3">
+        <v>187</v>
+      </c>
+      <c r="D44" s="7">
         <v>44320.823645490651</v>
       </c>
-      <c r="F44" t="s">
-        <v>216</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="H44" t="s">
-        <v>13</v>
-      </c>
-      <c r="I44" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>188</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G44" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="C45" t="s">
-        <v>220</v>
-      </c>
-      <c r="D45" t="s">
-        <v>215</v>
-      </c>
-      <c r="E45" s="3">
+        <v>192</v>
+      </c>
+      <c r="D45" s="7">
         <v>44320.823645513767</v>
       </c>
-      <c r="F45" t="s">
-        <v>221</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H45" t="s">
-        <v>13</v>
-      </c>
-      <c r="I45" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>193</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G45" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="C46" t="s">
-        <v>225</v>
-      </c>
-      <c r="D46" t="s">
-        <v>215</v>
-      </c>
-      <c r="E46" s="3">
+        <v>197</v>
+      </c>
+      <c r="D46" s="7">
         <v>44320.823645525343</v>
       </c>
-      <c r="F46" t="s">
-        <v>226</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="H46" t="s">
-        <v>13</v>
-      </c>
-      <c r="I46" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>198</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G46" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="C47" t="s">
-        <v>230</v>
-      </c>
-      <c r="D47" t="s">
-        <v>194</v>
-      </c>
-      <c r="E47" s="3">
+        <v>202</v>
+      </c>
+      <c r="D47" s="7">
         <v>44313.823645548488</v>
       </c>
-      <c r="F47" t="s">
-        <v>231</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="H47" t="s">
-        <v>13</v>
-      </c>
-      <c r="I47" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>203</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G47" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="C48" t="s">
-        <v>233</v>
-      </c>
-      <c r="D48" t="s">
-        <v>194</v>
-      </c>
-      <c r="E48" s="3">
+        <v>205</v>
+      </c>
+      <c r="D48" s="7">
         <v>44313.823645560071</v>
       </c>
-      <c r="F48" t="s">
-        <v>234</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="H48" t="s">
-        <v>13</v>
-      </c>
-      <c r="I48" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>206</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G48" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="C49" t="s">
-        <v>188</v>
-      </c>
-      <c r="D49" t="s">
-        <v>215</v>
-      </c>
-      <c r="E49" s="3">
+        <v>162</v>
+      </c>
+      <c r="D49" s="7">
         <v>44320.823950441023</v>
       </c>
-      <c r="F49" t="s">
-        <v>238</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="H49" t="s">
-        <v>13</v>
-      </c>
-      <c r="I49" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>210</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G49" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="C50" t="s">
-        <v>242</v>
-      </c>
-      <c r="D50" t="s">
+        <v>214</v>
+      </c>
+      <c r="D50" s="7">
+        <v>44320.823950452606</v>
+      </c>
+      <c r="E50" t="s">
         <v>215</v>
       </c>
-      <c r="E50" s="3">
-        <v>44320.823950452606</v>
-      </c>
-      <c r="F50" t="s">
-        <v>243</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="H50" t="s">
-        <v>13</v>
-      </c>
-      <c r="I50" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F50" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G50" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="C51" t="s">
-        <v>225</v>
-      </c>
-      <c r="D51" t="s">
-        <v>215</v>
-      </c>
-      <c r="E51" s="3">
+        <v>197</v>
+      </c>
+      <c r="D51" s="7">
         <v>44320.823950464168</v>
       </c>
-      <c r="F51" t="s">
-        <v>226</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="H51" t="s">
-        <v>13</v>
-      </c>
-      <c r="I51" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>198</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G51" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="C52" t="s">
-        <v>163</v>
-      </c>
-      <c r="D52" t="s">
-        <v>215</v>
-      </c>
-      <c r="E52" s="3">
+        <v>138</v>
+      </c>
+      <c r="D52" s="7">
         <v>44320.823950475737</v>
       </c>
-      <c r="F52" t="s">
-        <v>247</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="H52" t="s">
-        <v>13</v>
-      </c>
-      <c r="I52" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>219</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G52" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="C53" t="s">
-        <v>230</v>
-      </c>
-      <c r="D53" t="s">
-        <v>251</v>
-      </c>
-      <c r="E53" s="3">
+        <v>202</v>
+      </c>
+      <c r="D53" s="7">
         <v>44324.823950487313</v>
       </c>
-      <c r="F53" t="s">
-        <v>252</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="H53" t="s">
-        <v>13</v>
-      </c>
-      <c r="I53" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E53" t="s">
+        <v>223</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G53" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="C54" t="s">
-        <v>256</v>
-      </c>
-      <c r="D54" t="s">
-        <v>257</v>
-      </c>
-      <c r="E54" s="3">
+        <v>227</v>
+      </c>
+      <c r="D54" s="7">
         <v>44323.823950498903</v>
       </c>
-      <c r="F54" t="s">
-        <v>258</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="H54" t="s">
-        <v>13</v>
-      </c>
-      <c r="I54" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E54" t="s">
+        <v>228</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G54" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="C55" t="s">
-        <v>262</v>
-      </c>
-      <c r="D55" t="s">
-        <v>263</v>
-      </c>
-      <c r="E55" s="3">
+        <v>232</v>
+      </c>
+      <c r="D55" s="7">
         <v>44321.823950510458</v>
       </c>
-      <c r="F55" t="s">
-        <v>264</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="H55" t="s">
-        <v>13</v>
-      </c>
-      <c r="I55" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>233</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G55" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="C56" t="s">
-        <v>268</v>
-      </c>
-      <c r="D56" t="s">
-        <v>215</v>
-      </c>
-      <c r="E56" s="3">
+        <v>237</v>
+      </c>
+      <c r="D56" s="7">
         <v>44320.823950522063</v>
       </c>
-      <c r="F56" t="s">
-        <v>269</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="H56" t="s">
-        <v>13</v>
-      </c>
-      <c r="I56" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
+        <v>238</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G56" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
       <c r="C57" t="s">
-        <v>132</v>
-      </c>
-      <c r="D57" t="s">
-        <v>273</v>
-      </c>
-      <c r="E57" s="3">
+        <v>109</v>
+      </c>
+      <c r="D57" s="7">
         <v>44326.82395053361</v>
       </c>
-      <c r="F57" t="s">
-        <v>274</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="H57" t="s">
-        <v>13</v>
-      </c>
-      <c r="I57" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E57" t="s">
+        <v>242</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G57" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="C58" t="s">
-        <v>278</v>
-      </c>
-      <c r="D58" t="s">
-        <v>257</v>
-      </c>
-      <c r="E58" s="3">
+        <v>246</v>
+      </c>
+      <c r="D58" s="7">
         <v>44323.8239505452</v>
       </c>
-      <c r="F58" t="s">
-        <v>279</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="H58" t="s">
-        <v>13</v>
-      </c>
-      <c r="I58" t="s">
-        <v>281</v>
+      <c r="E58" t="s">
+        <v>247</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G58" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{FC7E10EB-958C-486B-9D54-41BA867AFE62}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{1CE1E511-1D27-4423-9CA9-F637CE35969C}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{0EA4D9D6-65D2-40E6-B8CB-2C1F0E017820}"/>
-    <hyperlink ref="G5" r:id="rId4" xr:uid="{9E64A3E6-FED8-4971-8163-7440191179B5}"/>
-    <hyperlink ref="G6" r:id="rId5" xr:uid="{D268FC7F-FF35-4F32-8709-064FB7857814}"/>
-    <hyperlink ref="G7" r:id="rId6" xr:uid="{A63BEC72-5A8B-483E-905F-791735497559}"/>
-    <hyperlink ref="G8" r:id="rId7" xr:uid="{86CDC95B-A6E2-43B5-9381-C20491AF0672}"/>
-    <hyperlink ref="G9" r:id="rId8" xr:uid="{AA8C574B-1C57-4CF6-A042-BC484EA5E2C6}"/>
-    <hyperlink ref="G10" r:id="rId9" xr:uid="{DDBF791B-F77D-4468-8E46-7F62BE438706}"/>
-    <hyperlink ref="G11" r:id="rId10" xr:uid="{8D589130-61C6-48B6-920A-F4D4B0AB2773}"/>
-    <hyperlink ref="G12" r:id="rId11" xr:uid="{967B7389-499E-4AEF-956D-291759DE1723}"/>
-    <hyperlink ref="G13" r:id="rId12" xr:uid="{774E907A-7217-4E44-ACE7-145029A57972}"/>
-    <hyperlink ref="G14" r:id="rId13" xr:uid="{803F71E6-4827-4E96-851A-D6C7725985B7}"/>
-    <hyperlink ref="G15" r:id="rId14" xr:uid="{BA421E4F-D344-4773-9FF8-E9F469441E9F}"/>
-    <hyperlink ref="G16" r:id="rId15" xr:uid="{A7CC270B-3915-4C5B-9400-4CF4E88E5C6D}"/>
-    <hyperlink ref="G17" r:id="rId16" xr:uid="{779D45C7-E1CE-4238-91E3-3E1F3A5E54F9}"/>
-    <hyperlink ref="G18" r:id="rId17" xr:uid="{051B339C-1F37-4FDF-97BE-0D998B5B0342}"/>
-    <hyperlink ref="G19" r:id="rId18" xr:uid="{30729C7C-5693-422B-BC65-45F207175EBD}"/>
-    <hyperlink ref="G20" r:id="rId19" xr:uid="{B23FF308-E801-436E-988D-609D1D9D6F22}"/>
-    <hyperlink ref="G21" r:id="rId20" xr:uid="{334DD26F-309D-43FC-9ABF-0798E130A79C}"/>
-    <hyperlink ref="G22" r:id="rId21" xr:uid="{A4792437-764E-4BDE-BCA2-AEF5BB53FA44}"/>
-    <hyperlink ref="G23" r:id="rId22" xr:uid="{3A1C6782-FC6F-43DD-93A1-D96792A1886E}"/>
-    <hyperlink ref="G24" r:id="rId23" xr:uid="{840B6F11-9950-42FC-8199-B4A675F3AAF2}"/>
-    <hyperlink ref="G25" r:id="rId24" xr:uid="{64FABEF8-D0FF-4A8F-95EA-F009D2D07938}"/>
-    <hyperlink ref="G26" r:id="rId25" xr:uid="{E0E9059C-AFDD-4E8F-A66B-DB87EE2FF72F}"/>
-    <hyperlink ref="G27" r:id="rId26" xr:uid="{3839FD80-92DD-4FFC-B523-6A0CD2568691}"/>
-    <hyperlink ref="G28" r:id="rId27" xr:uid="{F11A102C-F28B-4DA8-B768-D4A9EDFB2A3D}"/>
-    <hyperlink ref="G29" r:id="rId28" xr:uid="{8C572E79-D2E2-419B-8B4A-9461B9453888}"/>
-    <hyperlink ref="G30" r:id="rId29" xr:uid="{74EBF412-EA34-40CC-B032-6916A5A41214}"/>
-    <hyperlink ref="G31" r:id="rId30" xr:uid="{337B5FB4-43FD-4290-B821-F3FA1B242B7F}"/>
-    <hyperlink ref="G32" r:id="rId31" xr:uid="{99F2DD78-45E6-4C6F-B581-9EC8E54FA0CC}"/>
-    <hyperlink ref="G33" r:id="rId32" xr:uid="{7456486A-4146-455D-B551-489E420F497A}"/>
-    <hyperlink ref="G34" r:id="rId33" xr:uid="{B9A1241A-3E61-4210-8D53-F6FD46A6BC35}"/>
-    <hyperlink ref="G35" r:id="rId34" xr:uid="{51F13ABD-E4F7-438A-AB47-1FC741843BF9}"/>
-    <hyperlink ref="G36" r:id="rId35" xr:uid="{9C61ECED-D6DD-4B3D-8BD6-B5BB7B890EAF}"/>
-    <hyperlink ref="G37" r:id="rId36" xr:uid="{7999B4C8-215E-4ABF-A469-ED66A182D652}"/>
-    <hyperlink ref="G38" r:id="rId37" xr:uid="{A93842FF-3002-42ED-B733-BE686A707D47}"/>
-    <hyperlink ref="G39" r:id="rId38" xr:uid="{E25A654E-77D3-4925-9669-607D8DC303F5}"/>
-    <hyperlink ref="G40" r:id="rId39" xr:uid="{CC21864A-82DC-4310-A022-C4FCC2CFFBD8}"/>
-    <hyperlink ref="G41" r:id="rId40" xr:uid="{40AE1157-3DB4-4D11-9AFD-F6D864098AC6}"/>
-    <hyperlink ref="G42" r:id="rId41" xr:uid="{B2A9BAA1-0149-42FD-8B4F-E89465597B66}"/>
-    <hyperlink ref="G43" r:id="rId42" xr:uid="{4ACC959D-BD29-4C5A-9A12-D40ED58CA56A}"/>
-    <hyperlink ref="G44" r:id="rId43" xr:uid="{1B23E912-8431-4B50-A10D-48C38C9E8FD2}"/>
-    <hyperlink ref="G45" r:id="rId44" xr:uid="{9EE22814-FD32-4280-A113-0044E4519307}"/>
-    <hyperlink ref="G46" r:id="rId45" xr:uid="{77CB504A-BA14-4449-A643-85C9B2EAB93E}"/>
-    <hyperlink ref="G47" r:id="rId46" xr:uid="{1F1BCA70-C614-4FDF-8261-620AB080B05B}"/>
-    <hyperlink ref="G48" r:id="rId47" xr:uid="{1C6B30AE-8CE4-484D-B025-A723382906DB}"/>
-    <hyperlink ref="G49" r:id="rId48" xr:uid="{9A204112-957E-4077-9F5A-4C1B135B1D1C}"/>
-    <hyperlink ref="G50" r:id="rId49" xr:uid="{D1B5F2BF-5AE5-4183-8163-8DF3CF863441}"/>
-    <hyperlink ref="G51" r:id="rId50" xr:uid="{0A16B353-EECB-4A16-AF70-704EC5818838}"/>
-    <hyperlink ref="G52" r:id="rId51" xr:uid="{8E5603D4-0C80-4A30-BEC4-DE7D9525987F}"/>
-    <hyperlink ref="G53" r:id="rId52" xr:uid="{F390CC42-4516-4DF5-AC5D-C1C155269310}"/>
-    <hyperlink ref="G54" r:id="rId53" xr:uid="{FB06F9A1-1806-42A2-9E3C-B4182A16FF7A}"/>
-    <hyperlink ref="G55" r:id="rId54" xr:uid="{D72DB6FB-4829-4D6F-81A5-4088F0BD9274}"/>
-    <hyperlink ref="G56" r:id="rId55" xr:uid="{89EB0166-7AF9-4834-9ADF-3F92868A9686}"/>
-    <hyperlink ref="G57" r:id="rId56" xr:uid="{91CB9E1D-C23B-4604-846A-2D23C2998A56}"/>
-    <hyperlink ref="G58" r:id="rId57" xr:uid="{E1CA9DB8-E761-48C8-B104-6FD76DBB6636}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{FC7E10EB-958C-486B-9D54-41BA867AFE62}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{1CE1E511-1D27-4423-9CA9-F637CE35969C}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{0EA4D9D6-65D2-40E6-B8CB-2C1F0E017820}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{9E64A3E6-FED8-4971-8163-7440191179B5}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{D268FC7F-FF35-4F32-8709-064FB7857814}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{A63BEC72-5A8B-483E-905F-791735497559}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{86CDC95B-A6E2-43B5-9381-C20491AF0672}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{AA8C574B-1C57-4CF6-A042-BC484EA5E2C6}"/>
+    <hyperlink ref="F10" r:id="rId9" xr:uid="{DDBF791B-F77D-4468-8E46-7F62BE438706}"/>
+    <hyperlink ref="F11" r:id="rId10" xr:uid="{8D589130-61C6-48B6-920A-F4D4B0AB2773}"/>
+    <hyperlink ref="F12" r:id="rId11" xr:uid="{967B7389-499E-4AEF-956D-291759DE1723}"/>
+    <hyperlink ref="F13" r:id="rId12" xr:uid="{774E907A-7217-4E44-ACE7-145029A57972}"/>
+    <hyperlink ref="F14" r:id="rId13" xr:uid="{803F71E6-4827-4E96-851A-D6C7725985B7}"/>
+    <hyperlink ref="F15" r:id="rId14" xr:uid="{BA421E4F-D344-4773-9FF8-E9F469441E9F}"/>
+    <hyperlink ref="F16" r:id="rId15" xr:uid="{A7CC270B-3915-4C5B-9400-4CF4E88E5C6D}"/>
+    <hyperlink ref="F17" r:id="rId16" xr:uid="{779D45C7-E1CE-4238-91E3-3E1F3A5E54F9}"/>
+    <hyperlink ref="F18" r:id="rId17" xr:uid="{051B339C-1F37-4FDF-97BE-0D998B5B0342}"/>
+    <hyperlink ref="F19" r:id="rId18" xr:uid="{30729C7C-5693-422B-BC65-45F207175EBD}"/>
+    <hyperlink ref="F20" r:id="rId19" xr:uid="{B23FF308-E801-436E-988D-609D1D9D6F22}"/>
+    <hyperlink ref="F21" r:id="rId20" xr:uid="{334DD26F-309D-43FC-9ABF-0798E130A79C}"/>
+    <hyperlink ref="F22" r:id="rId21" xr:uid="{A4792437-764E-4BDE-BCA2-AEF5BB53FA44}"/>
+    <hyperlink ref="F23" r:id="rId22" xr:uid="{3A1C6782-FC6F-43DD-93A1-D96792A1886E}"/>
+    <hyperlink ref="F24" r:id="rId23" xr:uid="{840B6F11-9950-42FC-8199-B4A675F3AAF2}"/>
+    <hyperlink ref="F25" r:id="rId24" xr:uid="{64FABEF8-D0FF-4A8F-95EA-F009D2D07938}"/>
+    <hyperlink ref="F26" r:id="rId25" xr:uid="{E0E9059C-AFDD-4E8F-A66B-DB87EE2FF72F}"/>
+    <hyperlink ref="F27" r:id="rId26" xr:uid="{3839FD80-92DD-4FFC-B523-6A0CD2568691}"/>
+    <hyperlink ref="F28" r:id="rId27" xr:uid="{F11A102C-F28B-4DA8-B768-D4A9EDFB2A3D}"/>
+    <hyperlink ref="F29" r:id="rId28" xr:uid="{8C572E79-D2E2-419B-8B4A-9461B9453888}"/>
+    <hyperlink ref="F30" r:id="rId29" xr:uid="{74EBF412-EA34-40CC-B032-6916A5A41214}"/>
+    <hyperlink ref="F31" r:id="rId30" xr:uid="{337B5FB4-43FD-4290-B821-F3FA1B242B7F}"/>
+    <hyperlink ref="F32" r:id="rId31" xr:uid="{99F2DD78-45E6-4C6F-B581-9EC8E54FA0CC}"/>
+    <hyperlink ref="F33" r:id="rId32" xr:uid="{7456486A-4146-455D-B551-489E420F497A}"/>
+    <hyperlink ref="F34" r:id="rId33" xr:uid="{B9A1241A-3E61-4210-8D53-F6FD46A6BC35}"/>
+    <hyperlink ref="F35" r:id="rId34" xr:uid="{51F13ABD-E4F7-438A-AB47-1FC741843BF9}"/>
+    <hyperlink ref="F36" r:id="rId35" xr:uid="{9C61ECED-D6DD-4B3D-8BD6-B5BB7B890EAF}"/>
+    <hyperlink ref="F37" r:id="rId36" xr:uid="{7999B4C8-215E-4ABF-A469-ED66A182D652}"/>
+    <hyperlink ref="F38" r:id="rId37" xr:uid="{A93842FF-3002-42ED-B733-BE686A707D47}"/>
+    <hyperlink ref="F39" r:id="rId38" xr:uid="{E25A654E-77D3-4925-9669-607D8DC303F5}"/>
+    <hyperlink ref="F40" r:id="rId39" xr:uid="{CC21864A-82DC-4310-A022-C4FCC2CFFBD8}"/>
+    <hyperlink ref="F41" r:id="rId40" xr:uid="{40AE1157-3DB4-4D11-9AFD-F6D864098AC6}"/>
+    <hyperlink ref="F42" r:id="rId41" xr:uid="{B2A9BAA1-0149-42FD-8B4F-E89465597B66}"/>
+    <hyperlink ref="F43" r:id="rId42" xr:uid="{4ACC959D-BD29-4C5A-9A12-D40ED58CA56A}"/>
+    <hyperlink ref="F44" r:id="rId43" xr:uid="{1B23E912-8431-4B50-A10D-48C38C9E8FD2}"/>
+    <hyperlink ref="F45" r:id="rId44" xr:uid="{9EE22814-FD32-4280-A113-0044E4519307}"/>
+    <hyperlink ref="F46" r:id="rId45" xr:uid="{77CB504A-BA14-4449-A643-85C9B2EAB93E}"/>
+    <hyperlink ref="F47" r:id="rId46" xr:uid="{1F1BCA70-C614-4FDF-8261-620AB080B05B}"/>
+    <hyperlink ref="F48" r:id="rId47" xr:uid="{1C6B30AE-8CE4-484D-B025-A723382906DB}"/>
+    <hyperlink ref="F49" r:id="rId48" xr:uid="{9A204112-957E-4077-9F5A-4C1B135B1D1C}"/>
+    <hyperlink ref="F50" r:id="rId49" xr:uid="{D1B5F2BF-5AE5-4183-8163-8DF3CF863441}"/>
+    <hyperlink ref="F51" r:id="rId50" xr:uid="{0A16B353-EECB-4A16-AF70-704EC5818838}"/>
+    <hyperlink ref="F52" r:id="rId51" xr:uid="{8E5603D4-0C80-4A30-BEC4-DE7D9525987F}"/>
+    <hyperlink ref="F53" r:id="rId52" xr:uid="{F390CC42-4516-4DF5-AC5D-C1C155269310}"/>
+    <hyperlink ref="F54" r:id="rId53" xr:uid="{FB06F9A1-1806-42A2-9E3C-B4182A16FF7A}"/>
+    <hyperlink ref="F55" r:id="rId54" xr:uid="{D72DB6FB-4829-4D6F-81A5-4088F0BD9274}"/>
+    <hyperlink ref="F56" r:id="rId55" xr:uid="{89EB0166-7AF9-4834-9ADF-3F92868A9686}"/>
+    <hyperlink ref="F57" r:id="rId56" xr:uid="{91CB9E1D-C23B-4604-846A-2D23C2998A56}"/>
+    <hyperlink ref="F58" r:id="rId57" xr:uid="{E1CA9DB8-E761-48C8-B104-6FD76DBB6636}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId58"/>
 </worksheet>
 </file>
--- a/Data Collection/Authors/Adolf Muschg/Muschg_all_2021.xlsx
+++ b/Data Collection/Authors/Adolf Muschg/Muschg_all_2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c6ad9d82f21af58/Dokumente/COINS_SwissTribeleaders/Data Collection/Authors/Adolf Muschg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{4CC416D2-C4CC-4382-8184-7292BCE88E02}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8F5FBA9F-2BAE-49BB-A3B8-FC384E08AA3F}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{4CC416D2-C4CC-4382-8184-7292BCE88E02}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0A15F3E3-47C7-4940-9C4C-457CF28010A9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="251">
   <si>
     <t>title</t>
   </si>
@@ -967,6 +967,9 @@
 Foto: Florian Bachmeier (Photo12)Ist der Holocaust das schlimmste je verübte Menschheitsverbrechen, einzigartig, unvergleichbar – oder nur eines unter anderen, Teil einer Geschichte der Massenmorde, begangen aus rassischen, religiösen oder ideologischen Gründen?
 Wie ein Staat, ein Volk, eine Gesellschaft die eigene Vergangenheit bewertet, prägt das Selbstverständnis, bestimmt aber auch oft das politische Handeln.
 So reagiert die Türkei nach wie vor äusserst gereizt auf jede Einstufung der Ermordung Hunderttausender Armenier als Genozid – und das war 1915.</t>
+  </si>
+  <si>
+    <t>flag</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1021,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1041,13 +1044,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1061,6 +1075,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1343,10 +1360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1355,7 +1372,7 @@
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1374,8 +1391,11 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1398,7 +1418,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1421,7 +1441,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1444,7 +1464,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1464,7 +1484,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1487,7 +1507,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1510,7 +1530,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1530,7 +1550,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1553,7 +1573,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1576,7 +1596,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1596,7 +1616,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1619,7 +1639,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1639,7 +1659,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1662,7 +1682,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1682,7 +1702,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Data Collection/Authors/Adolf Muschg/Muschg_all_2021.xlsx
+++ b/Data Collection/Authors/Adolf Muschg/Muschg_all_2021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c6ad9d82f21af58/Dokumente/COINS_SwissTribeleaders/Data Collection/Authors/Adolf Muschg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{4CC416D2-C4CC-4382-8184-7292BCE88E02}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0A15F3E3-47C7-4940-9C4C-457CF28010A9}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{4CC416D2-C4CC-4382-8184-7292BCE88E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FD10D4E-7050-4774-9982-27DE61CC5BF0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1362,8 +1362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1417,6 +1417,9 @@
       <c r="G2" t="s">
         <v>10</v>
       </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -1440,6 +1443,9 @@
       <c r="G3" t="s">
         <v>15</v>
       </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -1463,6 +1469,9 @@
       <c r="G4" t="s">
         <v>20</v>
       </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -1483,6 +1492,9 @@
       <c r="G5" t="s">
         <v>24</v>
       </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -1506,6 +1518,9 @@
       <c r="G6" t="s">
         <v>29</v>
       </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -1529,6 +1544,9 @@
       <c r="G7" t="s">
         <v>33</v>
       </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -1549,6 +1567,9 @@
       <c r="F8" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -1572,6 +1593,9 @@
       <c r="G9" t="s">
         <v>42</v>
       </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -1595,6 +1619,9 @@
       <c r="G10" t="s">
         <v>46</v>
       </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -1615,6 +1642,9 @@
       <c r="G11" t="s">
         <v>50</v>
       </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -1638,6 +1668,9 @@
       <c r="G12" t="s">
         <v>55</v>
       </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -1658,6 +1691,9 @@
       <c r="G13" t="s">
         <v>59</v>
       </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -1681,6 +1717,9 @@
       <c r="G14" t="s">
         <v>62</v>
       </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -1701,6 +1740,9 @@
       <c r="F15" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -1721,8 +1763,11 @@
       <c r="F16" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1744,8 +1789,11 @@
       <c r="G17" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1764,8 +1812,11 @@
       <c r="G18" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1787,8 +1838,11 @@
       <c r="G19" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1810,8 +1864,11 @@
       <c r="G20" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1830,8 +1887,11 @@
       <c r="F21" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1853,8 +1913,11 @@
       <c r="G22" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -1877,7 +1940,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1900,7 +1963,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1923,7 +1986,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1946,7 +2009,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -1966,7 +2029,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -1989,7 +2052,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -2012,7 +2075,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -2035,7 +2098,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -2058,7 +2121,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
